--- a/documents/OOSE OOAD - rubric Case Study OO Design 2020-2021 - Sjaak, Patrick.xlsx
+++ b/documents/OOSE OOAD - rubric Case Study OO Design 2020-2021 - Sjaak, Patrick.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marco\OneDrive - HAN\OOSE-OOAD\Case study\TT feedback\groep 2 - Sjaak, Patrick\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\koksj\Documents\HAN\HBO-ICT\20-21-basissemesters\OOSE\GitHub\OOAD-Case-Study\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B6A5FA-1BC2-4062-A73F-49B164DA0436}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2940EB4-45EB-48E8-8415-6149F7EE3D55}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -909,10 +909,10 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J2" sqref="J2"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1290,6 +1290,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EFA47AC0A49469418FDB871F84AFCC4D" ma:contentTypeVersion="12" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="ea6f19308a308df51c29e21dc66a92a1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="53aadeef-871c-4d8b-955c-28f1a1590244" xmlns:ns4="67c6fd78-9e9e-49b0-99f6-392b7eb0c25b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="59ff7c758a0fa7f82f3d24f60f92637d" ns3:_="" ns4:_="">
     <xsd:import namespace="53aadeef-871c-4d8b-955c-28f1a1590244"/>
@@ -1506,36 +1521,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B80F7F0-D4D6-4DBC-881D-CD3901DD2489}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8CCA1474-8425-4DA9-BBC9-1E2CD62A8E4E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="53aadeef-871c-4d8b-955c-28f1a1590244"/>
-    <ds:schemaRef ds:uri="67c6fd78-9e9e-49b0-99f6-392b7eb0c25b"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1558,9 +1547,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8CCA1474-8425-4DA9-BBC9-1E2CD62A8E4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B80F7F0-D4D6-4DBC-881D-CD3901DD2489}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="53aadeef-871c-4d8b-955c-28f1a1590244"/>
+    <ds:schemaRef ds:uri="67c6fd78-9e9e-49b0-99f6-392b7eb0c25b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>